--- a/biology/Botanique/Oberlin_noir/Oberlin_noir.xlsx
+++ b/biology/Botanique/Oberlin_noir/Oberlin_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Oberlin noir (N595) est un cépage.
@@ -514,12 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-Le cépage N595, rebaptisé oberlin noir en 1964[réf. souhaitée], est obtenu par Chrétien Oberlin par hybridation du gamay et le cultivar du Vitis riparia, 'Millardet'[2].
-Aire de répartition
-Ce cépage autrefois cultivé depuis l’Alsace jusqu’à la Bourgogne ainsi qu’en Pays de Loire et dans le Centre[réf. souhaitée], a pratiquement disparu. La superficie totale d'oberlin noir en culture en France en 1958 était de 4 500 ha. En 2018, cela était tombé à seulement 62 ha[1].
-Synonymie et homonymie
-L'oberlin noir est aussi connu sous le nom « 595 Oberlin »[3]
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cépage N595, rebaptisé oberlin noir en 1964[réf. souhaitée], est obtenu par Chrétien Oberlin par hybridation du gamay et le cultivar du Vitis riparia, 'Millardet'.
 </t>
         </is>
       </c>
@@ -545,13 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le vin issu de ce cépage n’est autorisé que sous certaines appellations d'Indication Géographique Protégée[4].
-L'oberlin a un titre alcoométrique volumique potentiel important[1], pouvant aller de 14 à 17 %vol. .
+          <t>Aire de répartition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cépage autrefois cultivé depuis l’Alsace jusqu’à la Bourgogne ainsi qu’en Pays de Loire et dans le Centre[réf. souhaitée], a pratiquement disparu. La superficie totale d'oberlin noir en culture en France en 1958 était de 4 500 ha. En 2018, cela était tombé à seulement 62 ha.
 </t>
         </is>
       </c>
@@ -577,12 +595,85 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie et homonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'oberlin noir est aussi connu sous le nom « 595 Oberlin »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Oberlin_noir</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oberlin_noir</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vin issu de ce cépage n’est autorisé que sous certaines appellations d'Indication Géographique Protégée.
+L'oberlin a un titre alcoométrique volumique potentiel important, pouvant aller de 14 à 17 %vol. .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Oberlin_noir</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oberlin_noir</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Gastronomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il produit des vins charnus, la robe est intense[1] et violacée, et le goût est résineux[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il produit des vins charnus, la robe est intense et violacée, et le goût est résineux.
 </t>
         </is>
       </c>
